--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IntelliJ IDEA 2024.1.4\job\untitled11\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B0A8B-CEBD-462B-94EF-A48630800D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C7318-6EB5-4039-971A-77E798D35C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CERNa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERNb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CERNc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +107,14 @@
   </si>
   <si>
     <t>CERN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CERN_______________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石木古月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -471,10 +471,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -547,10 +547,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -575,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>

--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C7318-6EB5-4039-971A-77E798D35C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C18BEA-A6DA-47EC-940F-002D3D9974E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>2440539709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -443,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,7 +470,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -488,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -518,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CF7D9-5013-4E12-A670-B324F3B3E399}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -547,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>

--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C18BEA-A6DA-47EC-940F-002D3D9974E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5D51F-3C28-4B68-98B0-FA7507334685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,22 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CERNc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERNd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERNe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERNf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>linweiyu1</t>
   </si>
   <si>
@@ -111,6 +95,46 @@
   </si>
   <si>
     <t>石木古月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangjl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yangjl </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳金里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐天华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AkTtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜得抠脚、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linweiyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王模东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮冬_Winter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusk_Winter </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +464,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,10 +491,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -484,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -495,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -515,7 +539,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -540,13 +564,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -554,13 +578,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -568,13 +592,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>

--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING\java\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING-io\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5D51F-3C28-4B68-98B0-FA7507334685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14B28F9-5FDE-487E-A8D7-CF8B5406BA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -56,85 +56,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CERN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CERN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CERN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CERN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CERN5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CERN6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2440539709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CERN_______________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石木古月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangjl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yangjl </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳金里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐天华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AkTtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜得抠脚、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linweiyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王模东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮冬_Winter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusk_Winter </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Shimu_Guyue</t>
-  </si>
-  <si>
-    <t>CERN1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>linweiyu1</t>
-  </si>
-  <si>
-    <t>2440539709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN_______________</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石木古月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yangjl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">yangjl </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳金里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐天华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AkTtt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜得抠脚、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linweiyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王模东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暮冬_Winter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dusk_Winter </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -491,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,13 +507,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,13 +521,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CF7D9-5013-4E12-A670-B324F3B3E399}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -564,44 +566,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING-io\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14B28F9-5FDE-487E-A8D7-CF8B5406BA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B8F632-BD4F-4281-8AE9-02A6D8AC5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,31 +16,152 @@
     <sheet name="2023" sheetId="1" r:id="rId1"/>
     <sheet name="2024" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>codeforces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>牛客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>atcode</t>
+  </si>
+  <si>
+    <t>CERN_______________</t>
+  </si>
+  <si>
+    <t>胡岩松</t>
+  </si>
+  <si>
+    <t>Shimu_Guyue</t>
+  </si>
+  <si>
+    <t>林友能</t>
+  </si>
+  <si>
+    <t>linyouneng</t>
+  </si>
+  <si>
+    <t>洛林林</t>
+  </si>
+  <si>
+    <t>程嘉豪</t>
+  </si>
+  <si>
+    <t>张泉力宥</t>
+  </si>
+  <si>
+    <t>肖智涵</t>
+  </si>
+  <si>
+    <t>周小灿</t>
+  </si>
+  <si>
+    <t>王湘霞</t>
+  </si>
+  <si>
+    <t>李文瑶</t>
+  </si>
+  <si>
+    <t>龚丁泰</t>
+  </si>
+  <si>
+    <t>曾雯</t>
+  </si>
+  <si>
+    <t>郭迪迪</t>
+  </si>
+  <si>
+    <t>刘暄妍</t>
+  </si>
+  <si>
+    <t>朱文秀</t>
+  </si>
+  <si>
+    <t>李文杰</t>
+  </si>
+  <si>
+    <t>袁琦</t>
+  </si>
+  <si>
+    <t>陶家福</t>
+  </si>
+  <si>
+    <t>向鹏</t>
+  </si>
+  <si>
+    <t>刘翔</t>
+  </si>
+  <si>
+    <t>周文佳</t>
+  </si>
+  <si>
+    <t>彭雅琪</t>
+  </si>
+  <si>
+    <t>张敏</t>
+  </si>
+  <si>
+    <t>李欣怡</t>
+  </si>
+  <si>
+    <t>王斌</t>
+  </si>
+  <si>
+    <t>欧阳胜浠</t>
+  </si>
+  <si>
+    <t>茹仕谦</t>
+  </si>
+  <si>
+    <t>唐鸿辉</t>
+  </si>
+  <si>
+    <t>唐家鸿</t>
+  </si>
+  <si>
+    <t>唐李荣</t>
+  </si>
+  <si>
+    <t>邬子琦</t>
+  </si>
+  <si>
+    <t>唐喆</t>
+  </si>
+  <si>
+    <t>李子超</t>
+  </si>
+  <si>
+    <t>刘艳</t>
+  </si>
+  <si>
+    <t>刘玉玲</t>
+  </si>
+  <si>
+    <t>赵天航</t>
+  </si>
+  <si>
+    <t>刘晓芸</t>
+  </si>
+  <si>
+    <t>彭雅婷</t>
+  </si>
+  <si>
+    <t>陈康轩</t>
+  </si>
+  <si>
+    <t>陈宏</t>
+  </si>
+  <si>
+    <t>qwe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,95 +169,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡岩松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林友能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CERN6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2440539709</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CERN_______________</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石木古月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yangjl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">yangjl </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳金里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐天华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AkTtt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜得抠脚、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linweiyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王模东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暮冬_Winter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dusk_Winter </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shimu_Guyue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linweiyu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,12 +181,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,9 +231,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -243,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -278,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -453,11 +512,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -466,148 +520,292 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="15.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" tooltip="https://ac.nowcoder.com/profile/935156918" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CF7D9-5013-4E12-A670-B324F3B3E399}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="15.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING-io\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E019F8A-187E-4363-BC34-BB7AAF650EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B362E78-200B-4D81-B29D-A143937DC3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
     <sheet name="2024" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>who</t>
   </si>
@@ -45,12 +44,12 @@
     <t>邬子琦</t>
   </si>
   <si>
+    <t>ahahjy</t>
+  </si>
+  <si>
     <t>阿黄爱喝酱油</t>
   </si>
   <si>
-    <t>ahahjy</t>
-  </si>
-  <si>
     <t>肖智涵</t>
   </si>
   <si>
@@ -72,12 +71,18 @@
     <t>茹仕谦</t>
   </si>
   <si>
+    <t>rsq2024</t>
+  </si>
+  <si>
     <t>rsq1</t>
   </si>
   <si>
     <t>程嘉豪</t>
   </si>
   <si>
+    <t>jiacheng_</t>
+  </si>
+  <si>
     <t>暮半</t>
   </si>
   <si>
@@ -126,6 +131,9 @@
     <t>女开0830</t>
   </si>
   <si>
+    <t>xxxx77</t>
+  </si>
+  <si>
     <t>刘翔</t>
   </si>
   <si>
@@ -162,6 +170,9 @@
     <t>彭雅婷</t>
   </si>
   <si>
+    <t>pyt2006---</t>
+  </si>
+  <si>
     <t>是杰宝哇</t>
   </si>
   <si>
@@ -186,7 +197,7 @@
     <t>李子超</t>
   </si>
   <si>
-    <t>zcyyds592</t>
+    <t>zc592</t>
   </si>
   <si>
     <t>努力zc</t>
@@ -204,18 +215,111 @@
     <t>王斌</t>
   </si>
   <si>
+    <t>【未填写】</t>
+  </si>
+  <si>
     <t>神里凌华的dog</t>
   </si>
   <si>
     <t>shgxhdgou</t>
   </si>
   <si>
+    <t>陈宏</t>
+  </si>
+  <si>
+    <t>violet _gard</t>
+  </si>
+  <si>
+    <t>想退休的艾伦复盘中</t>
+  </si>
+  <si>
+    <t>ch_2005</t>
+  </si>
+  <si>
+    <t>袁琦</t>
+  </si>
+  <si>
+    <t>wenyiaaa</t>
+  </si>
+  <si>
+    <t>刘艳</t>
+  </si>
+  <si>
+    <t>meishahaokan</t>
+  </si>
+  <si>
+    <t>Buyaochongming1</t>
+  </si>
+  <si>
+    <t>李文杰</t>
+  </si>
+  <si>
+    <t>piliwudibaolongshou</t>
+  </si>
+  <si>
+    <t>霹雳无敌暴龙兽</t>
+  </si>
+  <si>
+    <t>周文佳</t>
+  </si>
+  <si>
+    <t>engagement_123</t>
+  </si>
+  <si>
+    <t>engagement_</t>
+  </si>
+  <si>
+    <t>张泉力宥</t>
+  </si>
+  <si>
+    <t>zqlyailjf</t>
+  </si>
+  <si>
+    <t>乌苏里江的风</t>
+  </si>
+  <si>
+    <t>刘玉玲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liuyuling </t>
+  </si>
+  <si>
+    <t>李文瑤</t>
+  </si>
+  <si>
+    <t>李文瑶</t>
+  </si>
+  <si>
+    <t>a19067228026</t>
+  </si>
+  <si>
+    <t>李欣怡</t>
+  </si>
+  <si>
+    <t>timekeeper25</t>
+  </si>
+  <si>
+    <t>郭迪迪</t>
+  </si>
+  <si>
+    <t>Sunlight _yg</t>
+  </si>
+  <si>
     <t>Codeforces</t>
   </si>
   <si>
     <t>luogucoder</t>
   </si>
   <si>
+    <t>胡岩松</t>
+  </si>
+  <si>
+    <t>Shimu_Guyue</t>
+  </si>
+  <si>
+    <t>石木古月</t>
+  </si>
+  <si>
     <t>刘俊茗</t>
   </si>
   <si>
@@ -225,36 +329,27 @@
     <t>CERN2440539709</t>
   </si>
   <si>
-    <t>胡岩松</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>林友能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2440539709</t>
+  </si>
+  <si>
+    <t>linyouneng</t>
+  </si>
+  <si>
+    <t>洛林林</t>
+  </si>
+  <si>
+    <t>颜文渝</t>
   </si>
   <si>
     <t>2440539709</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2440539709</t>
+    <t>【名字不存在】</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>newbie</t>
-  </si>
-  <si>
-    <t>rsq2024</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiacheng_</t>
+    <t>【名字未填写】</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -315,13 +410,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,92 +734,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="2023"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="13.81640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="2024"/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="13.81640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -744,7 +850,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -758,14 +864,14 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
@@ -800,334 +906,364 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9BCEFA-6416-4E8D-B6F5-E60E25C2B477}">
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>73</v>
+      <c r="B24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING-io\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B362E78-200B-4D81-B29D-A143937DC3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81824C3-40FA-45D6-A077-B07FB03CE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
   <si>
     <t>who</t>
   </si>
@@ -227,9 +227,6 @@
     <t>陈宏</t>
   </si>
   <si>
-    <t>violet _gard</t>
-  </si>
-  <si>
     <t>想退休的艾伦复盘中</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
   </si>
   <si>
     <t>周文佳</t>
-  </si>
-  <si>
-    <t>engagement_123</t>
   </si>
   <si>
     <t>engagement_</t>
@@ -350,6 +344,32 @@
   </si>
   <si>
     <t>【名字未填写】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantimereverse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yan_Wy</t>
+  </si>
+  <si>
+    <t>meimeimei</t>
+  </si>
+  <si>
+    <t>engagement_123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xyun_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>violet_gard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunlight_yg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +437,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,7 +760,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="18" customHeight="1"/>
@@ -747,66 +770,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>64</v>
@@ -827,7 +850,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="18" customHeight="1"/>
@@ -1033,7 +1056,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>46</v>
@@ -1117,7 +1140,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>65</v>
@@ -1130,140 +1153,140 @@
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING-io\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81824C3-40FA-45D6-A077-B07FB03CE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68BDD43-8715-4967-84F3-043401BE2097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>who</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>ahahjy</t>
-  </si>
-  <si>
-    <t>阿黄爱喝酱油</t>
   </si>
   <si>
     <t>肖智涵</t>
@@ -370,6 +367,22 @@
   </si>
   <si>
     <t>Sunlight_yg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿黄喝酱油</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王湘霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech_2024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxx想变强</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +453,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,69 +786,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -847,10 +863,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="2024"/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="18" customHeight="1"/>
@@ -890,8 +906,8 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+      <c r="C3" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -899,394 +915,405 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>91</v>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/java/src/main/resources/rating.xlsx
+++ b/java/src/main/resources/rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING-io\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68BDD43-8715-4967-84F3-043401BE2097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889B61F8-5450-4B2F-B709-0F27D14B6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>who</t>
   </si>
@@ -303,12 +303,6 @@
   </si>
   <si>
     <t>胡岩松</t>
-  </si>
-  <si>
-    <t>Shimu_Guyue</t>
-  </si>
-  <si>
-    <t>石木古月</t>
   </si>
   <si>
     <t>刘俊茗</t>
@@ -383,6 +377,10 @@
   </si>
   <si>
     <t>wxx想变强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shimu_Guyue</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,9 +451,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,8 +770,8 @@
   <sheetPr codeName="2023"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="18" customHeight="1"/>
@@ -799,53 +794,53 @@
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>95</v>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>63</v>
@@ -865,7 +860,7 @@
   <sheetPr codeName="2024"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -907,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -1072,7 +1067,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
@@ -1156,7 +1151,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>64</v>
@@ -1170,7 +1165,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>67</v>
@@ -1198,7 +1193,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>72</v>
@@ -1212,7 +1207,7 @@
         <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>76</v>
@@ -1226,7 +1221,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>78</v>
@@ -1268,7 +1263,7 @@
         <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -1296,24 +1291,24 @@
         <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
